--- a/biology/Zoologie/Grand_Œdicnème/Grand_Œdicnème.xlsx
+++ b/biology/Zoologie/Grand_Œdicnème/Grand_Œdicnème.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grand_%C5%92dicn%C3%A8me</t>
+          <t>Grand_Œdicnème</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Esacus recurvirostris
 Le Grand Œdicnème (Esacus recurvirostris) est une espèce de grands oiseaux limicoles du sud de l'Asie de la famille des Burhinidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grand_%C5%92dicn%C3%A8me</t>
+          <t>Grand_Œdicnème</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un grand limicole, d'une longueur de 49-55 cm, avec un bec de 7 cm de long, massif et légèrement recourbé vers le haut. Le dessus est gris-brun et le dessous blanchâtre. La gorge et les sourcils sont blancs, le bec est brun avec une base jaune. Les yeux sont d'un jaune vif (comme chez tous les Œdicnèmes). Les pattes sont verdâtres.
 En vol, on remarque une barre alaire bien visible sur le dessus, ainsi que le dessous des ailes blanc. S'il n'y a pas de vrai dimorphisme sexuel, les jeunes sont plus pâles que les adultes.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grand_%C5%92dicn%C3%A8me</t>
+          <t>Grand_Œdicnème</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fréquente les bords des cours d'eau et les plages d'Asie du Sud et du Sud-Est; il est plus aquatique que les autres Œdicnèmes. Il nomadise plus qu'il n'effectue de véritables migrations.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Grand_%C5%92dicn%C3%A8me</t>
+          <t>Grand_Œdicnème</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit de crabes, gros insectes, mollusques et de grenouilles.
 </t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Grand_%C5%92dicn%C3%A8me</t>
+          <t>Grand_Œdicnème</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est au crépuscule et dans la nuit qu'il est actif, se rassemblant en petits groupes et poussant un cri caractéristique, sorte de sifflement plaintif (voisin de celui des autres Œdicnèmes).
 </t>
@@ -620,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Grand_%C5%92dicn%C3%A8me</t>
+          <t>Grand_Œdicnème</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -638,7 +658,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">A lieu au printemps (de février à juin); très sommaire, le nid n'est qu'un creux gratté dans le sable ou un rocher concave, où 2 œufs sont pondus. Les poussins sont nidifuges.
 </t>
